--- a/AYCES (TRY).xlsx
+++ b/AYCES (TRY).xlsx
@@ -6888,7 +6888,7 @@
         <v>390257603.30839807</v>
       </c>
       <c r="F3">
-        <v>190856715</v>
+        <v>332493501</v>
       </c>
       <c r="G3">
         <v>131017457.62878132</v>
@@ -7025,7 +7025,7 @@
         <v>-315379201.1121343</v>
       </c>
       <c r="F7">
-        <v>-107767831</v>
+        <v>-256562323</v>
       </c>
       <c r="G7">
         <v>-148341904.88412187</v>
@@ -7147,7 +7147,7 @@
         <v>74878402.1962638</v>
       </c>
       <c r="F8">
-        <v>83088884</v>
+        <v>75931178</v>
       </c>
       <c r="G8">
         <v>-17324447.255340546</v>
@@ -7532,7 +7532,7 @@
         <v>74878402.1962638</v>
       </c>
       <c r="F13">
-        <v>83088884</v>
+        <v>75931178</v>
       </c>
       <c r="G13">
         <v>-17324447.255340546</v>
@@ -7655,7 +7655,7 @@
         <v>-114657195.61432642</v>
       </c>
       <c r="F15">
-        <v>-24302970</v>
+        <v>-96138499</v>
       </c>
       <c r="G15">
         <v>-59500399.748627946</v>
@@ -7777,7 +7777,7 @@
         <v>-15035052.785509676</v>
       </c>
       <c r="F16">
-        <v>-4770593</v>
+        <v>-11166723</v>
       </c>
       <c r="G16">
         <v>-6242235.487435229</v>
@@ -7904,7 +7904,7 @@
         <v>2046016.2166992608</v>
       </c>
       <c r="F18">
-        <v>1122472</v>
+        <v>517315</v>
       </c>
       <c r="G18">
         <v>166759.7222309134</v>
@@ -8026,7 +8026,7 @@
         <v>-1979602.5042409345</v>
       </c>
       <c r="F19">
-        <v>-1681404</v>
+        <v>-1211757</v>
       </c>
       <c r="G19">
         <v>-519797.6622788674</v>
@@ -8153,7 +8153,7 @@
         <v>-54747432.49111396</v>
       </c>
       <c r="F21">
-        <v>53456389</v>
+        <v>-32068486</v>
       </c>
       <c r="G21">
         <v>-83420120.43145168</v>
@@ -8470,7 +8470,7 @@
         <v>-54747432.49111396</v>
       </c>
       <c r="F33">
-        <v>54595003</v>
+        <v>-32068486</v>
       </c>
       <c r="G33">
         <v>-83420120.43145168</v>
@@ -8593,7 +8593,7 @@
         <v>9550261.497547077</v>
       </c>
       <c r="F35">
-        <v>1043223</v>
+        <v>7809450</v>
       </c>
       <c r="G35">
         <v>5808918.650169052</v>
@@ -8715,7 +8715,7 @@
         <v>-16538786.722199252</v>
       </c>
       <c r="F36">
-        <v>-6096623</v>
+        <v>-35608061</v>
       </c>
       <c r="G36">
         <v>-16662485.798376206</v>
@@ -8837,7 +8837,7 @@
         <v>32288611.30260193</v>
       </c>
       <c r="F37">
-        <v>12885258</v>
+        <v>27548971</v>
       </c>
       <c r="G37">
         <v>13231934.96697178</v>
@@ -8878,7 +8878,7 @@
         <v>-29447346.41316422</v>
       </c>
       <c r="F38">
-        <v>62426861</v>
+        <v>-32318126</v>
       </c>
       <c r="G38">
         <v>-81041752.61268705</v>
@@ -9001,7 +9001,7 @@
         <v>-144826076.9857593</v>
       </c>
       <c r="F40">
-        <v>-12923234</v>
+        <v>-96618504</v>
       </c>
       <c r="G40">
         <v>-116613212.10269557</v>
@@ -9128,7 +9128,7 @@
         <v>-144826076.9857593</v>
       </c>
       <c r="F42">
-        <v>-12923234</v>
+        <v>-96618504</v>
       </c>
       <c r="G42">
         <v>-116613212.10269557</v>
@@ -9250,7 +9250,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F43">
-        <v>49503627</v>
+        <v>-128936630</v>
       </c>
       <c r="G43">
         <v>-197654964.71538264</v>
@@ -9378,7 +9378,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F46">
-        <v>49503627</v>
+        <v>-128936630</v>
       </c>
       <c r="G46">
         <v>-197654964.71538264</v>
@@ -9607,7 +9607,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F48">
-        <v>49503627</v>
+        <v>-128936630</v>
       </c>
       <c r="G48">
         <v>-197654964.71538264</v>
@@ -10032,10 +10032,10 @@
         <v>46087127.46523337</v>
       </c>
       <c r="E3">
-        <v>199400888.30839807</v>
+        <v>57764102.30839807</v>
       </c>
       <c r="F3">
-        <v>59839257.37121868</v>
+        <v>201476043.37121868</v>
       </c>
       <c r="G3">
         <v>91584188.10397264</v>
@@ -10166,10 +10166,10 @@
         <v>-58767366.06971525</v>
       </c>
       <c r="E7">
-        <v>-207611370.11213428</v>
+        <v>-58816878.11213428</v>
       </c>
       <c r="F7">
-        <v>40574073.884121865</v>
+        <v>-108220418.11587813</v>
       </c>
       <c r="G7">
         <v>-75297658.02978764</v>
@@ -10285,10 +10285,10 @@
         <v>-12680238.604481878</v>
       </c>
       <c r="E8">
-        <v>-8210481.803736195</v>
+        <v>-1052775.803736195</v>
       </c>
       <c r="F8">
-        <v>100413331.25534055</v>
+        <v>93255625.25534055</v>
       </c>
       <c r="G8">
         <v>16286530.074184991</v>
@@ -10667,10 +10667,10 @@
         <v>-12680238.604481878</v>
       </c>
       <c r="E13">
-        <v>-8210481.803736195</v>
+        <v>-1052775.803736195</v>
       </c>
       <c r="F13">
-        <v>100413331.25534055</v>
+        <v>93255625.25534055</v>
       </c>
       <c r="G13">
         <v>16286530.074184991</v>
@@ -10787,10 +10787,10 @@
         <v>-26254432.04712388</v>
       </c>
       <c r="E15">
-        <v>-90354225.61432642</v>
+        <v>-18518696.614326417</v>
       </c>
       <c r="F15">
-        <v>35197429.748627946</v>
+        <v>-36638099.251372054</v>
       </c>
       <c r="G15">
         <v>-24980772.806974076</v>
@@ -10906,10 +10906,10 @@
         <v>-3343743.193070619</v>
       </c>
       <c r="E16">
-        <v>-10264459.785509676</v>
+        <v>-3868329.7855096757</v>
       </c>
       <c r="F16">
-        <v>1471642.4874352291</v>
+        <v>-4924487.512564771</v>
       </c>
       <c r="G16">
         <v>-3938886.3764802045</v>
@@ -11030,10 +11030,10 @@
         <v>1182163.3357193256</v>
       </c>
       <c r="E18">
-        <v>923544.2166992608</v>
+        <v>1528701.2166992608</v>
       </c>
       <c r="F18">
-        <v>955712.2777690866</v>
+        <v>350555.2777690866</v>
       </c>
       <c r="G18">
         <v>85584.23846726073</v>
@@ -11149,10 +11149,10 @@
         <v>-1409889.8679956708</v>
       </c>
       <c r="E19">
-        <v>-298198.5042409345</v>
+        <v>-767845.5042409345</v>
       </c>
       <c r="F19">
-        <v>-1161606.3377211327</v>
+        <v>-691959.3377211327</v>
       </c>
       <c r="G19">
         <v>-368027.27602269355</v>
@@ -11273,10 +11273,10 @@
         <v>-42506140.37695272</v>
       </c>
       <c r="E21">
-        <v>-108203821.49111396</v>
+        <v>-22678946.49111396</v>
       </c>
       <c r="F21">
-        <v>136876509.43145168</v>
+        <v>51351634.43145168</v>
       </c>
       <c r="G21">
         <v>-12915572.146824732</v>
@@ -11566,10 +11566,10 @@
         <v>-42506140.37695272</v>
       </c>
       <c r="E33">
-        <v>-109342435.49111396</v>
+        <v>-22678946.49111396</v>
       </c>
       <c r="F33">
-        <v>138015123.43145168</v>
+        <v>51351634.43145168</v>
       </c>
       <c r="G33">
         <v>-12915572.146824732</v>
@@ -11686,10 +11686,10 @@
         <v>1540786.1284093775</v>
       </c>
       <c r="E35">
-        <v>8507038.497547077</v>
+        <v>1740811.497547077</v>
       </c>
       <c r="F35">
-        <v>-4765695.650169052</v>
+        <v>2000531.3498309478</v>
       </c>
       <c r="G35">
         <v>1536151.6145036826</v>
@@ -11805,10 +11805,10 @@
         <v>-3543164.896624385</v>
       </c>
       <c r="E36">
-        <v>-10442163.722199252</v>
+        <v>19069274.277800746</v>
       </c>
       <c r="F36">
-        <v>10565862.798376206</v>
+        <v>-18945575.201623794</v>
       </c>
       <c r="G36">
         <v>-11898987.060178727</v>
@@ -11924,10 +11924,10 @@
         <v>6127572.388695378</v>
       </c>
       <c r="E37">
-        <v>19403353.30260193</v>
+        <v>4739640.30260193</v>
       </c>
       <c r="F37">
-        <v>-346676.96697177924</v>
+        <v>14317036.03302822</v>
       </c>
       <c r="G37">
         <v>13893777.09407216</v>
@@ -11962,10 +11962,10 @@
         <v>-38380946.75647235</v>
       </c>
       <c r="E38">
-        <v>-91874207.41316423</v>
+        <v>2870779.5868357792</v>
       </c>
       <c r="F38">
-        <v>143468613.61268705</v>
+        <v>48723626.61268705</v>
       </c>
       <c r="G38">
         <v>-9384630.498427615</v>
@@ -12082,10 +12082,10 @@
         <v>4298535.836017841</v>
       </c>
       <c r="E40">
-        <v>-131902842.98575929</v>
+        <v>-48207572.98575929</v>
       </c>
       <c r="F40">
-        <v>103689978.10269557</v>
+        <v>19994708.10269557</v>
       </c>
       <c r="G40">
         <v>-6705245.0349949</v>
@@ -12206,10 +12206,10 @@
         <v>4298535.836017841</v>
       </c>
       <c r="E42">
-        <v>-131902842.98575929</v>
+        <v>-48207572.98575929</v>
       </c>
       <c r="F42">
-        <v>103689978.10269557</v>
+        <v>19994708.10269557</v>
       </c>
       <c r="G42">
         <v>-6705245.0349949</v>
@@ -12325,10 +12325,10 @@
         <v>-34082410.92045451</v>
       </c>
       <c r="E43">
-        <v>-223777050.3989235</v>
+        <v>-45336793.39892349</v>
       </c>
       <c r="F43">
-        <v>247158591.71538264</v>
+        <v>68718334.71538264</v>
       </c>
       <c r="G43">
         <v>-16089875.53342253</v>
@@ -12450,10 +12450,10 @@
         <v>-34082410.92045451</v>
       </c>
       <c r="E46">
-        <v>-223777050.3989235</v>
+        <v>-45336793.39892349</v>
       </c>
       <c r="F46">
-        <v>247158591.71538264</v>
+        <v>68718334.71538264</v>
       </c>
       <c r="G46">
         <v>-16089875.53342253</v>
@@ -12658,10 +12658,10 @@
         <v>-34082410.92045451</v>
       </c>
       <c r="E48">
-        <v>-223777050.3989235</v>
+        <v>-45336793.39892349</v>
       </c>
       <c r="F48">
-        <v>247158591.71538264</v>
+        <v>68718334.71538264</v>
       </c>
       <c r="G48">
         <v>-16089875.53342253</v>
@@ -13071,7 +13071,7 @@
         <v xml:space="preserve">    Satış Gelirleri</v>
       </c>
       <c r="B3">
-        <v>526373224.30839807</v>
+        <v>384736438.30839807</v>
       </c>
       <c r="C3">
         <v>395355766.4127251</v>
@@ -13083,7 +13083,7 @@
         <v>390257603.30839807</v>
       </c>
       <c r="F3">
-        <v>244789302.6995057</v>
+        <v>386426088.6995057</v>
       </c>
       <c r="G3">
         <v>409392873.160592</v>
@@ -13190,7 +13190,7 @@
         <v xml:space="preserve">    Satışların Maliyeti (-)</v>
       </c>
       <c r="B7">
-        <v>-456533863.1121343</v>
+        <v>-307739371.1121343</v>
       </c>
       <c r="C7">
         <v>-308191959.1056404</v>
@@ -13202,7 +13202,7 @@
         <v>-315379201.1121343</v>
       </c>
       <c r="F7">
-        <v>-173067748.47616777</v>
+        <v>-321862240.4761678</v>
       </c>
       <c r="G7">
         <v>-323174751.1671616</v>
@@ -13294,7 +13294,7 @@
         <v xml:space="preserve">    Ticari Faaliyetlerden Brüt Kar (Zarar)</v>
       </c>
       <c r="B8">
-        <v>69839361.1962638</v>
+        <v>76997067.1962638</v>
       </c>
       <c r="C8">
         <v>87163807.30708474</v>
@@ -13306,7 +13306,7 @@
         <v>74878402.1962638</v>
       </c>
       <c r="F8">
-        <v>71721554.2233379</v>
+        <v>64563848.2233379</v>
       </c>
       <c r="G8">
         <v>86218121.9934304</v>
@@ -13634,7 +13634,7 @@
         <v xml:space="preserve">    Brüt Kar (Zarar)</v>
       </c>
       <c r="B13">
-        <v>69839361.1962638</v>
+        <v>76997067.1962638</v>
       </c>
       <c r="C13">
         <v>87163807.30708474</v>
@@ -13646,7 +13646,7 @@
         <v>74878402.1962638</v>
       </c>
       <c r="F13">
-        <v>71721554.2233379</v>
+        <v>64563848.2233379</v>
       </c>
       <c r="G13">
         <v>86218121.9934304</v>
@@ -13739,7 +13739,7 @@
         <v xml:space="preserve">    Genel Yönetim Giderleri (-)</v>
       </c>
       <c r="B15">
-        <v>-169063005.61432642</v>
+        <v>-97227476.61432642</v>
       </c>
       <c r="C15">
         <v>-109562605.95565528</v>
@@ -13751,7 +13751,7 @@
         <v>-114657195.61432642</v>
       </c>
       <c r="F15">
-        <v>-48453926.89844981</v>
+        <v>-120289455.89844981</v>
       </c>
       <c r="G15">
         <v>-116874317.89933237</v>
@@ -13843,7 +13843,7 @@
         <v xml:space="preserve">    Pazarlama, Satış ve Dağıtım Giderleri (-)</v>
       </c>
       <c r="B16">
-        <v>-22343654.785509676</v>
+        <v>-15947524.785509676</v>
       </c>
       <c r="C16">
         <v>-16101418.851259619</v>
@@ -13855,7 +13855,7 @@
         <v>-15035052.785509676</v>
       </c>
       <c r="F16">
-        <v>-8784298.776184792</v>
+        <v>-15180428.776184792</v>
       </c>
       <c r="G16">
         <v>-15283252.520210449</v>
@@ -13952,7 +13952,7 @@
         <v xml:space="preserve">    Diğer Faaliyet Gelirleri</v>
       </c>
       <c r="B18">
-        <v>5328714.216699261</v>
+        <v>5933871.216699261</v>
       </c>
       <c r="C18">
         <v>5161954.3992947135</v>
@@ -13964,7 +13964,7 @@
         <v>2046016.2166992608</v>
       </c>
       <c r="F18">
-        <v>1866648.1950988632</v>
+        <v>1261491.1950988632</v>
       </c>
       <c r="G18">
         <v>1937437.221344108</v>
@@ -14056,7 +14056,7 @@
         <v xml:space="preserve">    Diğer Faaliyet Giderleri (-)</v>
       </c>
       <c r="B19">
-        <v>-4058889.5042409347</v>
+        <v>-4528536.504240935</v>
       </c>
       <c r="C19">
         <v>-3539093.3200651077</v>
@@ -14068,7 +14068,7 @@
         <v>-1979602.5042409345</v>
       </c>
       <c r="F19">
-        <v>-1859820.5362233864</v>
+        <v>-1390173.5362233864</v>
       </c>
       <c r="G19">
         <v>-890942.9010680774</v>
@@ -14165,7 +14165,7 @@
         <v xml:space="preserve">    Faaliyet Karı (Zararı)</v>
       </c>
       <c r="B21">
-        <v>-120297474.49111396</v>
+        <v>-34772599.49111396</v>
       </c>
       <c r="C21">
         <v>-36877356.42060055</v>
@@ -14177,7 +14177,7 @@
         <v>-54747432.49111396</v>
       </c>
       <c r="F21">
-        <v>14490156.2075788</v>
+        <v>-71034718.79242119</v>
       </c>
       <c r="G21">
         <v>-44892954.10583639</v>
@@ -14419,7 +14419,7 @@
         <v xml:space="preserve">    Finansman Geliri (Gideri) Öncesi Faaliyet Karı (Zararı)</v>
       </c>
       <c r="B33">
-        <v>-120297474.49111396</v>
+        <v>-33633985.49111396</v>
       </c>
       <c r="C33">
         <v>-36877356.42060055</v>
@@ -14431,7 +14431,7 @@
         <v>-54747432.49111396</v>
       </c>
       <c r="F33">
-        <v>16018626.705452718</v>
+        <v>-70644862.29454729</v>
       </c>
       <c r="G33">
         <v>-44500706.109279595</v>
@@ -14524,7 +14524,7 @@
         <v xml:space="preserve">    (Esas Faaliyet Dışı) Finansal Gelirler</v>
       </c>
       <c r="B35">
-        <v>12136290.497547077</v>
+        <v>5370063.497547077</v>
       </c>
       <c r="C35">
         <v>6327371.505528764</v>
@@ -14536,7 +14536,7 @@
         <v>9550261.497547077</v>
       </c>
       <c r="F35">
-        <v>7237065.064688059</v>
+        <v>14003292.064688059</v>
       </c>
       <c r="G35">
         <v>14688751.253253635</v>
@@ -14628,7 +14628,7 @@
         <v xml:space="preserve">    (Esas Faaliyet Dışı) Finansal Giderler (-)</v>
       </c>
       <c r="B36">
-        <v>-24837221.722199254</v>
+        <v>4674216.277800746</v>
       </c>
       <c r="C36">
         <v>-8174736.173250759</v>
@@ -14640,7 +14640,7 @@
         <v>-16538786.722199252</v>
       </c>
       <c r="F36">
-        <v>-11686041.099751368</v>
+        <v>-41197479.09975137</v>
       </c>
       <c r="G36">
         <v>-29490310.340017613</v>
@@ -14732,7 +14732,7 @@
         <v xml:space="preserve">    Net Parasal Pozisyon Kazançları (Kayıpları)</v>
       </c>
       <c r="B37">
-        <v>42412520.30260193</v>
+        <v>27748807.30260193</v>
       </c>
       <c r="C37">
         <v>29180586.517561525</v>
@@ -14744,7 +14744,7 @@
         <v>32288611.30260193</v>
       </c>
       <c r="F37">
-        <v>-9865474.910099905</v>
+        <v>4798238.089900095</v>
       </c>
       <c r="G37">
         <v>20092001.776448183</v>
@@ -14764,7 +14764,7 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Vergi Öncesi Karı (Zararı)</v>
       </c>
       <c r="B38">
-        <v>-90585885.41316423</v>
+        <v>4159101.5868357792</v>
       </c>
       <c r="C38">
         <v>-9544134.570761032</v>
@@ -14776,7 +14776,7 @@
         <v>-29447346.41316422</v>
       </c>
       <c r="F38">
-        <v>1704175.7602894902</v>
+        <v>-93040811.23971051</v>
       </c>
       <c r="G38">
         <v>-39210263.41959539</v>
@@ -14869,7 +14869,7 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Vergi Geliri (Gideri)</v>
       </c>
       <c r="B40">
-        <v>-117434483.98575929</v>
+        <v>-33739213.98575929</v>
       </c>
       <c r="C40">
         <v>-821270.8345031366</v>
@@ -14881,7 +14881,7 @@
         <v>-144826076.9857593</v>
       </c>
       <c r="F40">
-        <v>86585439.94300051</v>
+        <v>2890169.9430005103</v>
       </c>
       <c r="G40">
         <v>-169000630.10723338</v>
@@ -14978,7 +14978,7 @@
         <v xml:space="preserve">    Ertelenmiş Vergi Geliri (Gideri)</v>
       </c>
       <c r="B42">
-        <v>-117434483.98575929</v>
+        <v>-33739213.98575929</v>
       </c>
       <c r="C42">
         <v>-821270.8345031366</v>
@@ -14990,7 +14990,7 @@
         <v>-144826076.9857593</v>
       </c>
       <c r="F42">
-        <v>86585439.94300051</v>
+        <v>2890169.9430005103</v>
       </c>
       <c r="G42">
         <v>-169000630.10723338</v>
@@ -15082,7 +15082,7 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Dönem Karı/Zararı</v>
       </c>
       <c r="B43">
-        <v>-208020369.3989235</v>
+        <v>-29580112.398923486</v>
       </c>
       <c r="C43">
         <v>-10365405.405264132</v>
@@ -15094,7 +15094,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F43">
-        <v>88289615.70329002</v>
+        <v>-90150641.29670998</v>
       </c>
       <c r="G43">
         <v>-208210893.52682877</v>
@@ -15192,7 +15192,7 @@
         <v xml:space="preserve">    Dönem Karı (Zararı)</v>
       </c>
       <c r="B46">
-        <v>-208020369.3989235</v>
+        <v>-29580112.398923486</v>
       </c>
       <c r="C46">
         <v>-10365405.405264132</v>
@@ -15204,7 +15204,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F46">
-        <v>88289615.70329002</v>
+        <v>-90150641.29670998</v>
       </c>
       <c r="G46">
         <v>-208210893.52682877</v>
@@ -15385,7 +15385,7 @@
         <v xml:space="preserve">    Ana Ortaklık Payları</v>
       </c>
       <c r="B48">
-        <v>-208020369.3989235</v>
+        <v>-29580112.398923486</v>
       </c>
       <c r="C48">
         <v>-10365405.405264132</v>
@@ -15397,7 +15397,7 @@
         <v>-174273423.3989235</v>
       </c>
       <c r="F48">
-        <v>88289615.70329002</v>
+        <v>-90150641.29670998</v>
       </c>
       <c r="G48">
         <v>-208210893.52682877</v>
